--- a/PTResults_trimmed.xlsx
+++ b/PTResults_trimmed.xlsx
@@ -66,27 +66,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -170,21 +155,21 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -193,9 +178,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1278,2338 +1260,2036 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.3516" style="1" customWidth="1"/>
-    <col min="4" max="6" width="11.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
-    <col min="8" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3516" style="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
+    <col min="7" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="3">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="4">
+      <c r="F1" s="3">
         <v>0.617035028915481</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="4">
-        <v>0</v>
+        <v>249.830880188103</v>
       </c>
       <c r="B2" s="5">
-        <v>249.830880188103</v>
-      </c>
-      <c r="C2" s="6">
         <v>7.20324493442158</v>
       </c>
-      <c r="D2" s="6">
+      <c r="C2" s="5">
         <v>0.300057187408672</v>
       </c>
-      <c r="E2" s="6">
+      <c r="D2" s="5">
         <v>2.20933029052736e-05</v>
       </c>
-      <c r="F2" s="6">
+      <c r="E2" s="5">
         <v>0.521073609924118</v>
       </c>
-      <c r="G2" s="6">
+      <c r="F2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="4">
-        <v>1</v>
+      <c r="A3" s="6">
+        <v>236.843543790752</v>
       </c>
       <c r="B3" s="7">
-        <v>236.843543790752</v>
-      </c>
-      <c r="C3" s="8">
         <v>1.86260211377671</v>
       </c>
-      <c r="D3" s="8">
+      <c r="C3" s="7">
         <v>0.472780363521524</v>
       </c>
-      <c r="E3" s="8">
+      <c r="D3" s="7">
         <v>2.58706989692268e-05</v>
       </c>
-      <c r="F3" s="8">
+      <c r="E3" s="7">
         <v>0.844523805552769</v>
       </c>
-      <c r="G3" s="8">
+      <c r="F3" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="4">
-        <v>2</v>
+      <c r="A4" s="6">
+        <v>249.917780576132</v>
       </c>
       <c r="B4" s="7">
-        <v>249.917780576132</v>
-      </c>
-      <c r="C4" s="8">
         <v>6.8521950039676</v>
       </c>
-      <c r="D4" s="8">
+      <c r="C4" s="7">
         <v>0.402226124865759</v>
       </c>
-      <c r="E4" s="8">
+      <c r="D4" s="7">
         <v>4.51246974556378e-05</v>
       </c>
-      <c r="F4" s="8">
+      <c r="E4" s="7">
         <v>0.422594764388289</v>
       </c>
-      <c r="G4" s="8">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="4">
-        <v>3</v>
+      <c r="A5" s="6">
+        <v>259.968700407136</v>
       </c>
       <c r="B5" s="7">
-        <v>259.968700407136</v>
-      </c>
-      <c r="C5" s="8">
         <v>4.17304802367127</v>
       </c>
-      <c r="D5" s="8">
+      <c r="C5" s="7">
         <v>0.579344914222876</v>
       </c>
-      <c r="E5" s="8">
+      <c r="D5" s="7">
         <v>1.56154775438094e-05</v>
       </c>
-      <c r="F5" s="8">
+      <c r="E5" s="7">
         <v>0.563433728495025</v>
       </c>
-      <c r="G5" s="8">
+      <c r="F5" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4">
-        <v>4</v>
+      <c r="A6" s="6">
+        <v>265.179782747021</v>
       </c>
       <c r="B6" s="7">
-        <v>265.179782747021</v>
-      </c>
-      <c r="C6" s="8">
         <v>9.682615757193981</v>
       </c>
-      <c r="D6" s="8">
+      <c r="C6" s="7">
         <v>0.456712089079621</v>
       </c>
-      <c r="E6" s="8">
+      <c r="D6" s="7">
         <v>3.76929046267726e-05</v>
       </c>
-      <c r="F6" s="8">
+      <c r="E6" s="7">
         <v>1.12302105064423</v>
       </c>
-      <c r="G6" s="8">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="4">
-        <v>5</v>
+      <c r="A7" s="6">
+        <v>268.934266540154</v>
       </c>
       <c r="B7" s="7">
-        <v>268.934266540154</v>
-      </c>
-      <c r="C7" s="8">
         <v>0.850442113697779</v>
       </c>
-      <c r="D7" s="8">
+      <c r="C7" s="7">
         <v>0.319527391616441</v>
       </c>
-      <c r="E7" s="8">
+      <c r="D7" s="7">
         <v>1.67932167825828e-05</v>
       </c>
-      <c r="F7" s="8">
+      <c r="E7" s="7">
         <v>1.12446756532927</v>
       </c>
-      <c r="G7" s="8">
+      <c r="F7" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="4">
-        <v>6</v>
+      <c r="A8" s="6">
+        <v>237.083873353322</v>
       </c>
       <c r="B8" s="7">
-        <v>237.083873353322</v>
-      </c>
-      <c r="C8" s="8">
         <v>4.21107625005052</v>
       </c>
-      <c r="D8" s="8">
+      <c r="C8" s="7">
         <v>0.778944765075251</v>
       </c>
-      <c r="E8" s="8">
+      <c r="D8" s="7">
         <v>3.13266113989207e-05</v>
       </c>
-      <c r="F8" s="8">
+      <c r="E8" s="7">
         <v>0.970798619009141</v>
       </c>
-      <c r="G8" s="8">
+      <c r="F8" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="4">
-        <v>7</v>
+      <c r="A9" s="6">
+        <v>245.770625240243</v>
       </c>
       <c r="B9" s="7">
-        <v>245.770625240243</v>
-      </c>
-      <c r="C9" s="8">
         <v>6.86500927681584</v>
       </c>
-      <c r="D9" s="8">
+      <c r="C9" s="7">
         <v>0.717312835948686</v>
       </c>
-      <c r="E9" s="8">
+      <c r="D9" s="7">
         <v>1.07315310937677e-05</v>
       </c>
-      <c r="F9" s="8">
+      <c r="E9" s="7">
         <v>1.0188690598296</v>
       </c>
-      <c r="G9" s="8">
+      <c r="F9" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="4">
-        <v>8</v>
+      <c r="A10" s="6">
+        <v>272.704443556260</v>
       </c>
       <c r="B10" s="7">
-        <v>272.704443556260</v>
-      </c>
-      <c r="C10" s="8">
         <v>7.48165654379839</v>
       </c>
-      <c r="D10" s="8">
+      <c r="C10" s="7">
         <v>0.440221996032203</v>
       </c>
-      <c r="E10" s="8">
+      <c r="D10" s="7">
         <v>4.15711731380596e-05</v>
       </c>
-      <c r="F10" s="8">
+      <c r="E10" s="7">
         <v>0.485161455426555</v>
       </c>
-      <c r="G10" s="8">
+      <c r="F10" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="4">
-        <v>9</v>
+      <c r="A11" s="6">
+        <v>251.065741047036</v>
       </c>
       <c r="B11" s="7">
-        <v>251.065741047036</v>
-      </c>
-      <c r="C11" s="8">
         <v>9.085955030930959</v>
       </c>
-      <c r="D11" s="8">
+      <c r="C11" s="7">
         <v>0.44680707418684</v>
       </c>
-      <c r="E11" s="8">
+      <c r="D11" s="7">
         <v>2.15110135434539e-05</v>
       </c>
-      <c r="F11" s="8">
+      <c r="E11" s="7">
         <v>0.5072735719975791</v>
       </c>
-      <c r="G11" s="8">
+      <c r="F11" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="4">
-        <v>10</v>
+      <c r="A12" s="6">
+        <v>233.924678314812</v>
       </c>
       <c r="B12" s="7">
-        <v>233.924678314812</v>
-      </c>
-      <c r="C12" s="8">
         <v>6.78835532939891</v>
       </c>
-      <c r="D12" s="8">
+      <c r="C12" s="7">
         <v>0.40581405800003</v>
       </c>
-      <c r="E12" s="8">
+      <c r="D12" s="7">
         <v>2.0621866374889e-05</v>
       </c>
-      <c r="F12" s="8">
+      <c r="E12" s="7">
         <v>0.805547856406279</v>
       </c>
-      <c r="G12" s="8">
+      <c r="F12" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="4">
-        <v>11</v>
+      <c r="A13" s="6">
+        <v>235.284501804683</v>
       </c>
       <c r="B13" s="7">
-        <v>235.284501804683</v>
-      </c>
-      <c r="C13" s="8">
         <v>5.74117605492013</v>
       </c>
-      <c r="D13" s="8">
+      <c r="C13" s="7">
         <v>0.373364287452905</v>
       </c>
-      <c r="E13" s="8">
+      <c r="D13" s="7">
         <v>3.35722214761314e-05</v>
       </c>
-      <c r="F13" s="8">
+      <c r="E13" s="7">
         <v>0.977300647017268</v>
       </c>
-      <c r="G13" s="8">
+      <c r="F13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="4">
-        <v>12</v>
+      <c r="A14" s="6">
+        <v>237.243377153113</v>
       </c>
       <c r="B14" s="7">
-        <v>237.243377153113</v>
-      </c>
-      <c r="C14" s="8">
         <v>4.14055987819568</v>
       </c>
-      <c r="D14" s="8">
+      <c r="C14" s="7">
         <v>0.647200078863873</v>
       </c>
-      <c r="E14" s="8">
+      <c r="D14" s="7">
         <v>2.65671707810761e-05</v>
       </c>
-      <c r="F14" s="8">
+      <c r="E14" s="7">
         <v>0.441211603630522</v>
       </c>
-      <c r="G14" s="8">
+      <c r="F14" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="4">
-        <v>13</v>
+      <c r="A15" s="6">
+        <v>254.585856236620</v>
       </c>
       <c r="B15" s="7">
-        <v>254.585856236620</v>
-      </c>
-      <c r="C15" s="8">
         <v>6.63794645219789</v>
       </c>
-      <c r="D15" s="8">
+      <c r="C15" s="7">
         <v>0.557444556029154</v>
       </c>
-      <c r="E15" s="8">
+      <c r="D15" s="7">
         <v>4.77837902396325e-05</v>
       </c>
-      <c r="F15" s="8">
+      <c r="E15" s="7">
         <v>0.883907908414144</v>
       </c>
-      <c r="G15" s="8">
+      <c r="F15" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="4">
-        <v>14</v>
+      <c r="A16" s="6">
+        <v>269.286076611515</v>
       </c>
       <c r="B16" s="7">
-        <v>269.286076611515</v>
-      </c>
-      <c r="C16" s="8">
         <v>1.37474704146238</v>
       </c>
-      <c r="D16" s="8">
+      <c r="C16" s="7">
         <v>0.369638173625379</v>
       </c>
-      <c r="E16" s="8">
+      <c r="D16" s="7">
         <v>4.2295651548381e-05</v>
       </c>
-      <c r="F16" s="8">
+      <c r="E16" s="7">
         <v>0.728083390513065</v>
       </c>
-      <c r="G16" s="8">
+      <c r="F16" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="4">
-        <v>15</v>
+      <c r="A17" s="6">
+        <v>239.764167884677</v>
       </c>
       <c r="B17" s="7">
-        <v>239.764167884677</v>
-      </c>
-      <c r="C17" s="8">
         <v>9.275085803960341</v>
       </c>
-      <c r="D17" s="8">
+      <c r="C17" s="7">
         <v>0.473882929872753</v>
       </c>
-      <c r="E17" s="8">
+      <c r="D17" s="7">
         <v>4.00324841254462e-05</v>
       </c>
-      <c r="F17" s="8">
+      <c r="E17" s="7">
         <v>0.998948337914122</v>
       </c>
-      <c r="G17" s="8">
+      <c r="F17" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="4">
-        <v>16</v>
+      <c r="A18" s="6">
+        <v>268.482243648232</v>
       </c>
       <c r="B18" s="7">
-        <v>268.482243648232</v>
-      </c>
-      <c r="C18" s="8">
         <v>6.23672207055609</v>
       </c>
-      <c r="D18" s="8">
+      <c r="C18" s="7">
         <v>0.675471217013669</v>
       </c>
-      <c r="E18" s="8">
+      <c r="D18" s="7">
         <v>2.39559336791137e-05</v>
       </c>
-      <c r="F18" s="8">
+      <c r="E18" s="7">
         <v>0.622690510706147</v>
       </c>
-      <c r="G18" s="8">
+      <c r="F18" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="4">
-        <v>17</v>
+      <c r="A19" s="6">
+        <v>268.985448727843</v>
       </c>
       <c r="B19" s="7">
-        <v>268.985448727843</v>
-      </c>
-      <c r="C19" s="8">
         <v>4.28091189871295</v>
       </c>
-      <c r="D19" s="8">
+      <c r="C19" s="7">
         <v>0.782420023574193</v>
       </c>
-      <c r="E19" s="8">
+      <c r="D19" s="7">
         <v>3.65376599127379e-05</v>
       </c>
-      <c r="F19" s="8">
+      <c r="E19" s="7">
         <v>0.912898969172526</v>
       </c>
-      <c r="G19" s="8">
+      <c r="F19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="4">
-        <v>18</v>
+      <c r="A20" s="6">
+        <v>237.739838918135</v>
       </c>
       <c r="B20" s="7">
-        <v>237.739838918135</v>
-      </c>
-      <c r="C20" s="8">
         <v>9.49489258707071</v>
       </c>
-      <c r="D20" s="8">
+      <c r="C20" s="7">
         <v>0.52495606673997</v>
       </c>
-      <c r="E20" s="8">
+      <c r="D20" s="7">
         <v>3.31355845754853e-05</v>
       </c>
-      <c r="F20" s="8">
+      <c r="E20" s="7">
         <v>0.736712862278057</v>
       </c>
-      <c r="G20" s="8">
+      <c r="F20" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="4">
-        <v>19</v>
+      <c r="A21" s="6">
+        <v>242.631079209721</v>
       </c>
       <c r="B21" s="7">
-        <v>242.631079209721</v>
-      </c>
-      <c r="C21" s="8">
         <v>9.033795205622541</v>
       </c>
-      <c r="D21" s="8">
+      <c r="C21" s="7">
         <v>0.586839743336143</v>
       </c>
-      <c r="E21" s="8">
+      <c r="D21" s="7">
         <v>1.01148130812464e-05</v>
       </c>
-      <c r="F21" s="8">
+      <c r="E21" s="7">
         <v>0.909144553737097</v>
       </c>
-      <c r="G21" s="8">
+      <c r="F21" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="4">
-        <v>20</v>
+      <c r="A22" s="6">
+        <v>246.215796070884</v>
       </c>
       <c r="B22" s="7">
-        <v>246.215796070884</v>
-      </c>
-      <c r="C22" s="8">
         <v>5.27058102257609</v>
       </c>
-      <c r="D22" s="8">
+      <c r="C22" s="7">
         <v>0.742971049655387</v>
       </c>
-      <c r="E22" s="8">
+      <c r="D22" s="7">
         <v>2.42907904001e-05</v>
       </c>
-      <c r="F22" s="8">
+      <c r="E22" s="7">
         <v>1.14954149950883</v>
       </c>
-      <c r="G22" s="8">
+      <c r="F22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="4">
-        <v>21</v>
+      <c r="A23" s="6">
+        <v>258.084404631672</v>
       </c>
       <c r="B23" s="7">
-        <v>258.084404631672</v>
-      </c>
-      <c r="C23" s="8">
         <v>0.158212428465563</v>
       </c>
-      <c r="D23" s="8">
+      <c r="C23" s="7">
         <v>0.764718616871881</v>
       </c>
-      <c r="E23" s="8">
+      <c r="D23" s="7">
         <v>3.7635876700677e-05</v>
       </c>
-      <c r="F23" s="8">
+      <c r="E23" s="7">
         <v>1.22279135162247</v>
       </c>
-      <c r="G23" s="8">
+      <c r="F23" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="4">
-        <v>22</v>
+      <c r="A24" s="6">
+        <v>240.043620333813</v>
       </c>
       <c r="B24" s="7">
-        <v>240.043620333813</v>
-      </c>
-      <c r="C24" s="8">
         <v>1.37135749628878</v>
       </c>
-      <c r="D24" s="8">
+      <c r="C24" s="7">
         <v>0.766297731518582</v>
       </c>
-      <c r="E24" s="8">
+      <c r="D24" s="7">
         <v>3.7872726459596e-05</v>
       </c>
-      <c r="F24" s="8">
+      <c r="E24" s="7">
         <v>0.454450142495702</v>
       </c>
-      <c r="G24" s="8">
+      <c r="F24" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="4">
-        <v>23</v>
+      <c r="A25" s="6">
+        <v>263.368522104099</v>
       </c>
       <c r="B25" s="7">
-        <v>263.368522104099</v>
-      </c>
-      <c r="C25" s="8">
         <v>7.53876188461246</v>
       </c>
-      <c r="D25" s="8">
+      <c r="C25" s="7">
         <v>0.761512267773242</v>
       </c>
-      <c r="E25" s="8">
+      <c r="D25" s="7">
         <v>3.84609903451389e-05</v>
       </c>
-      <c r="F25" s="8">
+      <c r="E25" s="7">
         <v>0.502523543627036</v>
       </c>
-      <c r="G25" s="8">
+      <c r="F25" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="4">
-        <v>24</v>
+      <c r="A26" s="6">
+        <v>233.945205353592</v>
       </c>
       <c r="B26" s="7">
-        <v>233.945205353592</v>
-      </c>
-      <c r="C26" s="8">
         <v>0.262109868777193</v>
       </c>
-      <c r="D26" s="8">
+      <c r="C26" s="7">
         <v>0.314153244010397</v>
       </c>
-      <c r="E26" s="8">
+      <c r="D26" s="7">
         <v>1.98484427041218e-05</v>
       </c>
-      <c r="F26" s="8">
+      <c r="E26" s="7">
         <v>1.10952305766338</v>
       </c>
-      <c r="G26" s="8">
+      <c r="F26" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="4">
-        <v>25</v>
+      <c r="A27" s="6">
+        <v>254.703242573666</v>
       </c>
       <c r="B27" s="7">
-        <v>254.703242573666</v>
-      </c>
-      <c r="C27" s="8">
         <v>5.52821978685766</v>
       </c>
-      <c r="D27" s="8">
+      <c r="C27" s="7">
         <v>0.721015446179803</v>
       </c>
-      <c r="E27" s="8">
+      <c r="D27" s="7">
         <v>1.49669326047965e-05</v>
       </c>
-      <c r="F27" s="8">
+      <c r="E27" s="7">
         <v>0.63032653518419</v>
       </c>
-      <c r="G27" s="8">
+      <c r="F27" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="4">
-        <v>26</v>
+      <c r="A28" s="6">
+        <v>256.580370858331</v>
       </c>
       <c r="B28" s="7">
-        <v>256.580370858331</v>
-      </c>
-      <c r="C28" s="8">
         <v>9.695957483196739</v>
       </c>
-      <c r="D28" s="8">
+      <c r="C28" s="7">
         <v>0.580515109627855</v>
       </c>
-      <c r="E28" s="8">
+      <c r="D28" s="7">
         <v>1.07458915749177e-05</v>
       </c>
-      <c r="F28" s="8">
+      <c r="E28" s="7">
         <v>1.06052195496151</v>
       </c>
-      <c r="G28" s="8">
+      <c r="F28" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="4">
-        <v>27</v>
+      <c r="A29" s="6">
+        <v>242.468970953641</v>
       </c>
       <c r="B29" s="7">
-        <v>242.468970953641</v>
-      </c>
-      <c r="C29" s="8">
         <v>8.071051956187789</v>
       </c>
-      <c r="D29" s="8">
+      <c r="C29" s="7">
         <v>0.493930322032086</v>
       </c>
-      <c r="E29" s="8">
+      <c r="D29" s="7">
         <v>4.45416741823771e-05</v>
       </c>
-      <c r="F29" s="8">
+      <c r="E29" s="7">
         <v>1.01637535525818</v>
       </c>
-      <c r="G29" s="8">
+      <c r="F29" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="4">
-        <v>28</v>
+      <c r="A30" s="6">
+        <v>255.399609359617</v>
       </c>
       <c r="B30" s="7">
-        <v>255.399609359617</v>
-      </c>
-      <c r="C30" s="8">
         <v>1.36455225660685</v>
       </c>
-      <c r="D30" s="8">
+      <c r="C30" s="7">
         <v>0.329958844756106</v>
       </c>
-      <c r="E30" s="8">
+      <c r="D30" s="7">
         <v>1.48537382296295e-05</v>
       </c>
-      <c r="F30" s="8">
+      <c r="E30" s="7">
         <v>0.436755299799428</v>
       </c>
-      <c r="G30" s="8">
+      <c r="F30" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="4">
-        <v>29</v>
+      <c r="A31" s="6">
+        <v>237.449765164244</v>
       </c>
       <c r="B31" s="7">
-        <v>237.449765164244</v>
-      </c>
-      <c r="C31" s="8">
         <v>2.25709338607855</v>
       </c>
-      <c r="D31" s="8">
+      <c r="C31" s="7">
         <v>0.656494490191338</v>
       </c>
-      <c r="E31" s="8">
+      <c r="D31" s="7">
         <v>3.23886792821657e-05</v>
       </c>
-      <c r="F31" s="8">
+      <c r="E31" s="7">
         <v>0.410358683631271</v>
       </c>
-      <c r="G31" s="8">
+      <c r="F31" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="4">
-        <v>30</v>
+      <c r="A32" s="6">
+        <v>236.028971187579</v>
       </c>
       <c r="B32" s="7">
-        <v>236.028971187579</v>
-      </c>
-      <c r="C32" s="8">
         <v>9.672763300002719</v>
       </c>
-      <c r="D32" s="8">
+      <c r="C32" s="7">
         <v>0.584050230959971</v>
       </c>
-      <c r="E32" s="8">
+      <c r="D32" s="7">
         <v>1.81317293864396e-05</v>
       </c>
-      <c r="F32" s="8">
+      <c r="E32" s="7">
         <v>0.608168739270517</v>
       </c>
-      <c r="G32" s="8">
+      <c r="F32" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="4">
-        <v>31</v>
+      <c r="A33" s="6">
+        <v>262.903034163004</v>
       </c>
       <c r="B33" s="7">
-        <v>262.903034163004</v>
-      </c>
-      <c r="C33" s="8">
         <v>1.95429481109319</v>
       </c>
-      <c r="D33" s="8">
+      <c r="C33" s="7">
         <v>0.590679463636629</v>
       </c>
-      <c r="E33" s="8">
+      <c r="D33" s="7">
         <v>4.88007995635325e-05</v>
       </c>
-      <c r="F33" s="8">
+      <c r="E33" s="7">
         <v>1.09863376122928</v>
       </c>
-      <c r="G33" s="8">
+      <c r="F33" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="4">
-        <v>32</v>
+      <c r="A34" s="6">
+        <v>242.743910365903</v>
       </c>
       <c r="B34" s="7">
-        <v>242.743910365903</v>
-      </c>
-      <c r="C34" s="8">
         <v>4.9376971426873</v>
       </c>
-      <c r="D34" s="8">
+      <c r="C34" s="7">
         <v>0.60997785919069</v>
       </c>
-      <c r="E34" s="8">
+      <c r="D34" s="7">
         <v>4.31592359820072e-05</v>
       </c>
-      <c r="F34" s="8">
+      <c r="E34" s="7">
         <v>0.52935290058302</v>
       </c>
-      <c r="G34" s="8">
+      <c r="F34" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="4">
-        <v>33</v>
+      <c r="A35" s="6">
+        <v>233.893048087096</v>
       </c>
       <c r="B35" s="7">
-        <v>233.893048087096</v>
-      </c>
-      <c r="C35" s="8">
         <v>0.700221437192223</v>
       </c>
-      <c r="D35" s="8">
+      <c r="C35" s="7">
         <v>0.5431725554685159</v>
       </c>
-      <c r="E35" s="8">
+      <c r="D35" s="7">
         <v>3.42531784661332e-05</v>
       </c>
-      <c r="F35" s="8">
+      <c r="E35" s="7">
         <v>0.869302435596347</v>
       </c>
-      <c r="G35" s="8">
+      <c r="F35" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="4">
-        <v>34</v>
+      <c r="A36" s="6">
+        <v>245.844496372886</v>
       </c>
       <c r="B36" s="7">
-        <v>245.844496372886</v>
-      </c>
-      <c r="C36" s="8">
         <v>9.886161544124491</v>
       </c>
-      <c r="D36" s="8">
+      <c r="C36" s="7">
         <v>0.589872609622898</v>
       </c>
-      <c r="E36" s="8">
+      <c r="D36" s="7">
         <v>2.5205646904942e-05</v>
       </c>
-      <c r="F36" s="8">
+      <c r="E36" s="7">
         <v>0.854532280772265</v>
       </c>
-      <c r="G36" s="8">
+      <c r="F36" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="4">
-        <v>35</v>
+      <c r="A37" s="6">
+        <v>262.963377236260</v>
       </c>
       <c r="B37" s="7">
-        <v>262.963377236260</v>
-      </c>
-      <c r="C37" s="8">
         <v>6.69232893453185</v>
       </c>
-      <c r="D37" s="8">
+      <c r="C37" s="7">
         <v>0.432459778831405</v>
       </c>
-      <c r="E37" s="8">
+      <c r="D37" s="7">
         <v>1.26533933771377e-05</v>
       </c>
-      <c r="F37" s="8">
+      <c r="E37" s="7">
         <v>0.705319463279138</v>
       </c>
-      <c r="G37" s="8">
+      <c r="F37" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="4">
-        <v>36</v>
+      <c r="A38" s="6">
+        <v>258.338700280863</v>
       </c>
       <c r="B38" s="7">
-        <v>258.338700280863</v>
-      </c>
-      <c r="C38" s="8">
         <v>2.1017400991484</v>
       </c>
-      <c r="D38" s="8">
+      <c r="C38" s="7">
         <v>0.676377776869407</v>
       </c>
-      <c r="E38" s="8">
+      <c r="D38" s="7">
         <v>1.26614592541646e-05</v>
       </c>
-      <c r="F38" s="8">
+      <c r="E38" s="7">
         <v>0.614759956327296</v>
       </c>
-      <c r="G38" s="8">
+      <c r="F38" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="4">
-        <v>37</v>
+      <c r="A39" s="6">
+        <v>265.340182549734</v>
       </c>
       <c r="B39" s="7">
-        <v>265.340182549734</v>
-      </c>
-      <c r="C39" s="8">
         <v>1.93434282623328</v>
       </c>
-      <c r="D39" s="8">
+      <c r="C39" s="7">
         <v>0.6197304404399701</v>
       </c>
-      <c r="E39" s="8">
+      <c r="D39" s="7">
         <v>3.09868123649494e-05</v>
       </c>
-      <c r="F39" s="8">
+      <c r="E39" s="7">
         <v>1.16296657557946</v>
       </c>
-      <c r="G39" s="8">
+      <c r="F39" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="4">
-        <v>38</v>
+      <c r="A40" s="6">
+        <v>243.681870819484</v>
       </c>
       <c r="B40" s="7">
-        <v>243.681870819484</v>
-      </c>
-      <c r="C40" s="8">
         <v>0.659610906840238</v>
       </c>
-      <c r="D40" s="8">
+      <c r="C40" s="7">
         <v>0.6675329816443351</v>
       </c>
-      <c r="E40" s="8">
+      <c r="D40" s="7">
         <v>4.08871211817299e-05</v>
       </c>
-      <c r="F40" s="8">
+      <c r="E40" s="7">
         <v>1.14894807831541</v>
       </c>
-      <c r="G40" s="8">
+      <c r="F40" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="4">
-        <v>39</v>
+      <c r="A41" s="6">
+        <v>270.428882767874</v>
       </c>
       <c r="B41" s="7">
-        <v>270.428882767874</v>
-      </c>
-      <c r="C41" s="8">
         <v>0.13951572975597</v>
       </c>
-      <c r="D41" s="8">
+      <c r="C41" s="7">
         <v>0.41718104306071</v>
       </c>
-      <c r="E41" s="8">
+      <c r="D41" s="7">
         <v>3.46711342800663e-05</v>
       </c>
-      <c r="F41" s="8">
+      <c r="E41" s="7">
         <v>1.18293846456728</v>
       </c>
-      <c r="G41" s="8">
+      <c r="F41" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="4">
-        <v>40</v>
+      <c r="A42" s="6">
+        <v>271.157044769883</v>
       </c>
       <c r="B42" s="7">
-        <v>271.157044769883</v>
-      </c>
-      <c r="C42" s="8">
         <v>5.56653188195156</v>
       </c>
-      <c r="D42" s="8">
+      <c r="C42" s="7">
         <v>0.757803174883137</v>
       </c>
-      <c r="E42" s="8">
+      <c r="D42" s="7">
         <v>3.56626483578535e-05</v>
       </c>
-      <c r="F42" s="8">
+      <c r="E42" s="7">
         <v>0.721756364166528</v>
       </c>
-      <c r="G42" s="8">
+      <c r="F42" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="4">
-        <v>41</v>
+      <c r="A43" s="6">
+        <v>252.589626683876</v>
       </c>
       <c r="B43" s="7">
-        <v>252.589626683876</v>
-      </c>
-      <c r="C43" s="8">
         <v>6.04310482919973</v>
       </c>
-      <c r="D43" s="8">
+      <c r="C43" s="7">
         <v>0.574773960754281</v>
       </c>
-      <c r="E43" s="8">
+      <c r="D43" s="7">
         <v>4.70472570682582e-05</v>
       </c>
-      <c r="F43" s="8">
+      <c r="E43" s="7">
         <v>1.15795508439773</v>
       </c>
-      <c r="G43" s="8">
+      <c r="F43" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="4">
-        <v>42</v>
+      <c r="A44" s="6">
+        <v>248.945024516942</v>
       </c>
       <c r="B44" s="7">
-        <v>248.945024516942</v>
-      </c>
-      <c r="C44" s="8">
         <v>9.632625284407119</v>
       </c>
-      <c r="D44" s="8">
+      <c r="C44" s="7">
         <v>0.386977833340232</v>
       </c>
-      <c r="E44" s="8">
+      <c r="D44" s="7">
         <v>1.50531807775855e-05</v>
       </c>
-      <c r="F44" s="8">
+      <c r="E44" s="7">
         <v>0.511440305388553</v>
       </c>
-      <c r="G44" s="8">
+      <c r="F44" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="4">
-        <v>43</v>
+      <c r="A45" s="6">
+        <v>253.376486627076</v>
       </c>
       <c r="B45" s="7">
-        <v>253.376486627076</v>
-      </c>
-      <c r="C45" s="8">
         <v>0.21524805274198</v>
       </c>
-      <c r="D45" s="8">
+      <c r="C45" s="7">
         <v>0.773985105608841</v>
       </c>
-      <c r="E45" s="8">
+      <c r="D45" s="7">
         <v>4.30846188468293e-05</v>
       </c>
-      <c r="F45" s="8">
+      <c r="E45" s="7">
         <v>0.412390659112251</v>
       </c>
-      <c r="G45" s="8">
+      <c r="F45" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="4">
-        <v>44</v>
+      <c r="A46" s="6">
+        <v>240.197850223002</v>
       </c>
       <c r="B46" s="7">
-        <v>240.197850223002</v>
-      </c>
-      <c r="C46" s="8">
         <v>3.32063574366837</v>
       </c>
-      <c r="D46" s="8">
+      <c r="C46" s="7">
         <v>0.365498422405458</v>
       </c>
-      <c r="E46" s="8">
+      <c r="D46" s="7">
         <v>4.23796276850633e-05</v>
       </c>
-      <c r="F46" s="8">
+      <c r="E46" s="7">
         <v>0.6844077384637171</v>
       </c>
-      <c r="G46" s="8">
+      <c r="F46" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="4">
-        <v>45</v>
+      <c r="A47" s="6">
+        <v>270.754299293335</v>
       </c>
       <c r="B47" s="7">
-        <v>270.754299293335</v>
-      </c>
-      <c r="C47" s="8">
         <v>5.8201417994708</v>
       </c>
-      <c r="D47" s="8">
+      <c r="C47" s="7">
         <v>0.739415992205922</v>
       </c>
-      <c r="E47" s="8">
+      <c r="D47" s="7">
         <v>4.37893778156889e-05</v>
       </c>
-      <c r="F47" s="8">
+      <c r="E47" s="7">
         <v>1.14694866293464</v>
       </c>
-      <c r="G47" s="8">
+      <c r="F47" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="48" ht="15" customHeight="1">
-      <c r="A48" s="4">
-        <v>46</v>
+      <c r="A48" s="6">
+        <v>251.545210632672</v>
       </c>
       <c r="B48" s="7">
-        <v>251.545210632672</v>
-      </c>
-      <c r="C48" s="8">
         <v>5.46346816020373</v>
       </c>
-      <c r="D48" s="8">
+      <c r="C48" s="7">
         <v>0.69930179557602</v>
       </c>
-      <c r="E48" s="8">
+      <c r="D48" s="7">
         <v>2.14287540693659e-05</v>
       </c>
-      <c r="F48" s="8">
+      <c r="E48" s="7">
         <v>0.80445915616144</v>
       </c>
-      <c r="G48" s="8">
+      <c r="F48" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="49" ht="15" customHeight="1">
-      <c r="A49" s="4">
-        <v>47</v>
+      <c r="A49" s="6">
+        <v>257.114412305835</v>
       </c>
       <c r="B49" s="7">
-        <v>257.114412305835</v>
-      </c>
-      <c r="C49" s="8">
         <v>0.155332755508357</v>
       </c>
-      <c r="D49" s="8">
+      <c r="C49" s="7">
         <v>0.596740704098319</v>
       </c>
-      <c r="E49" s="8">
+      <c r="D49" s="7">
         <v>2.73470539595783e-05</v>
       </c>
-      <c r="F49" s="8">
+      <c r="E49" s="7">
         <v>1.06607243632999</v>
       </c>
-      <c r="G49" s="8">
+      <c r="F49" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
-      <c r="A50" s="4">
-        <v>48</v>
+      <c r="A50" s="6">
+        <v>245.759792123815</v>
       </c>
       <c r="B50" s="7">
-        <v>245.759792123815</v>
-      </c>
-      <c r="C50" s="8">
         <v>8.92888708525151</v>
       </c>
-      <c r="D50" s="8">
+      <c r="C50" s="7">
         <v>0.588928607642268</v>
       </c>
-      <c r="E50" s="8">
+      <c r="D50" s="7">
         <v>1.73604080650986e-05</v>
       </c>
-      <c r="F50" s="8">
+      <c r="E50" s="7">
         <v>1.05004161790604</v>
       </c>
-      <c r="G50" s="8">
+      <c r="F50" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="4">
-        <v>49</v>
+      <c r="A51" s="6">
+        <v>257.631247081797</v>
       </c>
       <c r="B51" s="7">
-        <v>257.631247081797</v>
-      </c>
-      <c r="C51" s="8">
         <v>0.53909272073753</v>
       </c>
-      <c r="D51" s="8">
+      <c r="C51" s="7">
         <v>0.510096840000566</v>
       </c>
-      <c r="E51" s="8">
+      <c r="D51" s="7">
         <v>3.71627534626172e-05</v>
       </c>
-      <c r="F51" s="8">
+      <c r="E51" s="7">
         <v>1.15784646683146</v>
       </c>
-      <c r="G51" s="8">
+      <c r="F51" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="4">
-        <v>50</v>
+      <c r="A52" s="6">
+        <v>233.166080995654</v>
       </c>
       <c r="B52" s="7">
-        <v>233.166080995654</v>
-      </c>
-      <c r="C52" s="8">
         <v>9.7675914903106</v>
       </c>
-      <c r="D52" s="8">
+      <c r="C52" s="7">
         <v>0.488290157372887</v>
       </c>
-      <c r="E52" s="8">
+      <c r="D52" s="7">
         <v>4.89513415343329e-05</v>
       </c>
-      <c r="F52" s="8">
+      <c r="E52" s="7">
         <v>0.898890783303594</v>
       </c>
-      <c r="G52" s="8">
+      <c r="F52" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="4">
-        <v>51</v>
+      <c r="A53" s="6">
+        <v>266.303832319228</v>
       </c>
       <c r="B53" s="7">
-        <v>266.303832319228</v>
-      </c>
-      <c r="C53" s="8">
         <v>5.74711504708102</v>
       </c>
-      <c r="D53" s="8">
+      <c r="C53" s="7">
         <v>0.614038099153675</v>
       </c>
-      <c r="E53" s="8">
+      <c r="D53" s="7">
         <v>2.14230512678278e-05</v>
       </c>
-      <c r="F53" s="8">
+      <c r="E53" s="7">
         <v>0.884137506041268</v>
       </c>
-      <c r="G53" s="8">
+      <c r="F53" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
-      <c r="A54" s="4">
-        <v>52</v>
+      <c r="A54" s="6">
+        <v>263.150870548106</v>
       </c>
       <c r="B54" s="7">
-        <v>263.150870548106</v>
-      </c>
-      <c r="C54" s="8">
         <v>8.58313836429042</v>
       </c>
-      <c r="D54" s="8">
+      <c r="C54" s="7">
         <v>0.67754109423384</v>
       </c>
-      <c r="E54" s="8">
+      <c r="D54" s="7">
         <v>3.79222899378921e-05</v>
       </c>
-      <c r="F54" s="8">
+      <c r="E54" s="7">
         <v>1.11319552979505</v>
       </c>
-      <c r="G54" s="8">
+      <c r="F54" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="55" ht="15" customHeight="1">
-      <c r="A55" s="4">
-        <v>53</v>
+      <c r="A55" s="6">
+        <v>246.057239873470</v>
       </c>
       <c r="B55" s="7">
-        <v>246.057239873470</v>
-      </c>
-      <c r="C55" s="8">
         <v>6.70788790787587</v>
       </c>
-      <c r="D55" s="8">
+      <c r="C55" s="7">
         <v>0.525436968206675</v>
       </c>
-      <c r="E55" s="8">
+      <c r="D55" s="7">
         <v>2.52841100812607e-05</v>
       </c>
-      <c r="F55" s="8">
+      <c r="E55" s="7">
         <v>0.738919363685803</v>
       </c>
-      <c r="G55" s="8">
+      <c r="F55" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="56" ht="15" customHeight="1">
-      <c r="A56" s="4">
-        <v>54</v>
+      <c r="A56" s="6">
+        <v>249.209183338782</v>
       </c>
       <c r="B56" s="7">
-        <v>249.209183338782</v>
-      </c>
-      <c r="C56" s="8">
         <v>3.17383945958277</v>
       </c>
-      <c r="D56" s="8">
+      <c r="C56" s="7">
         <v>0.610959683960151</v>
       </c>
-      <c r="E56" s="8">
+      <c r="D56" s="7">
         <v>2.72098908328506e-05</v>
       </c>
-      <c r="F56" s="8">
+      <c r="E56" s="7">
         <v>1.20338671428998</v>
       </c>
-      <c r="G56" s="8">
+      <c r="F56" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="57" ht="15" customHeight="1">
-      <c r="A57" s="4">
-        <v>55</v>
+      <c r="A57" s="6">
+        <v>260.262035657372</v>
       </c>
       <c r="B57" s="7">
-        <v>260.262035657372</v>
-      </c>
-      <c r="C57" s="8">
         <v>1.98569888427111</v>
       </c>
-      <c r="D57" s="8">
+      <c r="C57" s="7">
         <v>0.513350504674016</v>
       </c>
-      <c r="E57" s="8">
+      <c r="D57" s="7">
         <v>2.37338495909769e-05</v>
       </c>
-      <c r="F57" s="8">
+      <c r="E57" s="7">
         <v>1.05805201326582</v>
       </c>
-      <c r="G57" s="8">
+      <c r="F57" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="58" ht="15" customHeight="1">
-      <c r="A58" s="4">
-        <v>56</v>
+      <c r="A58" s="6">
+        <v>268.349931542537</v>
       </c>
       <c r="B58" s="7">
-        <v>268.349931542537</v>
-      </c>
-      <c r="C58" s="8">
         <v>9.038419558263721</v>
       </c>
-      <c r="D58" s="8">
+      <c r="C58" s="7">
         <v>0.631359906187631</v>
       </c>
-      <c r="E58" s="8">
+      <c r="D58" s="7">
         <v>2.08083304811903e-05</v>
       </c>
-      <c r="F58" s="8">
+      <c r="E58" s="7">
         <v>0.608202528741287</v>
       </c>
-      <c r="G58" s="8">
+      <c r="F58" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="59" ht="15" customHeight="1">
-      <c r="A59" s="4">
-        <v>57</v>
+      <c r="A59" s="6">
+        <v>267.345917707896</v>
       </c>
       <c r="B59" s="7">
-        <v>267.345917707896</v>
-      </c>
-      <c r="C59" s="8">
         <v>5.27714646308747</v>
       </c>
-      <c r="D59" s="8">
+      <c r="C59" s="7">
         <v>0.701080542002299</v>
       </c>
-      <c r="E59" s="8">
+      <c r="D59" s="7">
         <v>3.28995406876643e-05</v>
       </c>
-      <c r="F59" s="8">
+      <c r="E59" s="7">
         <v>1.0048425833622</v>
       </c>
-      <c r="G59" s="8">
+      <c r="F59" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="60" ht="15" customHeight="1">
-      <c r="A60" s="4">
-        <v>58</v>
+      <c r="A60" s="6">
+        <v>253.910465098562</v>
       </c>
       <c r="B60" s="7">
-        <v>253.910465098562</v>
-      </c>
-      <c r="C60" s="8">
         <v>7.70883910501888</v>
       </c>
-      <c r="D60" s="8">
+      <c r="C60" s="7">
         <v>0.584428995352358</v>
       </c>
-      <c r="E60" s="8">
+      <c r="D60" s="7">
         <v>2.86283951436792e-05</v>
       </c>
-      <c r="F60" s="8">
+      <c r="E60" s="7">
         <v>0.682718349061457</v>
       </c>
-      <c r="G60" s="8">
+      <c r="F60" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="61" ht="15" customHeight="1">
-      <c r="A61" s="4">
-        <v>59</v>
+      <c r="A61" s="6">
+        <v>235.878373936668</v>
       </c>
       <c r="B61" s="7">
-        <v>235.878373936668</v>
-      </c>
-      <c r="C61" s="8">
         <v>3.779241793281</v>
       </c>
-      <c r="D61" s="8">
+      <c r="C61" s="7">
         <v>0.339813038849126</v>
       </c>
-      <c r="E61" s="8">
+      <c r="D61" s="7">
         <v>4.93126845492178e-05</v>
       </c>
-      <c r="F61" s="8">
+      <c r="E61" s="7">
         <v>0.5498306023478799</v>
       </c>
-      <c r="G61" s="8">
+      <c r="F61" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="62" ht="15" customHeight="1">
-      <c r="A62" s="4">
-        <v>60</v>
+      <c r="A62" s="6">
+        <v>265.624347908822</v>
       </c>
       <c r="B62" s="7">
-        <v>265.624347908822</v>
-      </c>
-      <c r="C62" s="8">
         <v>8.74961644955898</v>
       </c>
-      <c r="D62" s="8">
+      <c r="C62" s="7">
         <v>0.644206626192972</v>
       </c>
-      <c r="E62" s="8">
+      <c r="D62" s="7">
         <v>3.2779776509815e-05</v>
       </c>
-      <c r="F62" s="8">
+      <c r="E62" s="7">
         <v>0.5328014353728771</v>
       </c>
-      <c r="G62" s="8">
+      <c r="F62" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="63" ht="15" customHeight="1">
-      <c r="A63" s="4">
-        <v>61</v>
+      <c r="A63" s="6">
+        <v>251.825200910532</v>
       </c>
       <c r="B63" s="7">
-        <v>251.825200910532</v>
-      </c>
-      <c r="C63" s="8">
         <v>3.45172051155215</v>
       </c>
-      <c r="D63" s="8">
+      <c r="C63" s="7">
         <v>0.412519978907042</v>
       </c>
-      <c r="E63" s="8">
+      <c r="D63" s="7">
         <v>3.37004747506319e-05</v>
       </c>
-      <c r="F63" s="8">
+      <c r="E63" s="7">
         <v>0.657622616104081</v>
       </c>
-      <c r="G63" s="8">
+      <c r="F63" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="64" ht="15" customHeight="1">
-      <c r="A64" s="4">
-        <v>62</v>
+      <c r="A64" s="6">
+        <v>269.802222138734</v>
       </c>
       <c r="B64" s="7">
-        <v>269.802222138734</v>
-      </c>
-      <c r="C64" s="8">
         <v>9.09635524951557</v>
       </c>
-      <c r="D64" s="8">
+      <c r="C64" s="7">
         <v>0.428559146891098</v>
       </c>
-      <c r="E64" s="8">
+      <c r="D64" s="7">
         <v>1.44356520297612e-05</v>
       </c>
-      <c r="F64" s="8">
+      <c r="E64" s="7">
         <v>0.559194253915768</v>
       </c>
-      <c r="G64" s="8">
+      <c r="F64" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="65" ht="15" customHeight="1">
-      <c r="A65" s="4">
-        <v>63</v>
+      <c r="A65" s="6">
+        <v>253.133366827155</v>
       </c>
       <c r="B65" s="7">
-        <v>253.133366827155</v>
-      </c>
-      <c r="C65" s="8">
         <v>7.28585667974596</v>
       </c>
-      <c r="D65" s="8">
+      <c r="C65" s="7">
         <v>0.404097219204396</v>
       </c>
-      <c r="E65" s="8">
+      <c r="D65" s="7">
         <v>1.99213423350892e-05</v>
       </c>
-      <c r="F65" s="8">
+      <c r="E65" s="7">
         <v>1.1026292968225</v>
       </c>
-      <c r="G65" s="8">
+      <c r="F65" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="66" ht="15" customHeight="1">
-      <c r="A66" s="4">
-        <v>64</v>
+      <c r="A66" s="6">
+        <v>249.783948730701</v>
       </c>
       <c r="B66" s="7">
-        <v>249.783948730701</v>
-      </c>
-      <c r="C66" s="8">
         <v>6.16685067155236</v>
       </c>
-      <c r="D66" s="8">
+      <c r="C66" s="7">
         <v>0.416833069619625</v>
       </c>
-      <c r="E66" s="8">
+      <c r="D66" s="7">
         <v>1.40786903770319e-05</v>
       </c>
-      <c r="F66" s="8">
+      <c r="E66" s="7">
         <v>0.825582038999037</v>
       </c>
-      <c r="G66" s="8">
+      <c r="F66" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="67" ht="15" customHeight="1">
-      <c r="A67" s="4">
-        <v>65</v>
+      <c r="A67" s="6">
+        <v>252.235639481991</v>
       </c>
       <c r="B67" s="7">
-        <v>252.235639481991</v>
-      </c>
-      <c r="C67" s="8">
         <v>1.52671644093163</v>
       </c>
-      <c r="D67" s="8">
+      <c r="C67" s="7">
         <v>0.610903115870208</v>
       </c>
-      <c r="E67" s="8">
+      <c r="D67" s="7">
         <v>3.17604047525575e-05</v>
       </c>
-      <c r="F67" s="8">
+      <c r="E67" s="7">
         <v>0.939663311250864</v>
       </c>
-      <c r="G67" s="8">
+      <c r="F67" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="68" ht="15" customHeight="1">
-      <c r="A68" s="4">
-        <v>66</v>
+      <c r="A68" s="6">
+        <v>238.931821604986</v>
       </c>
       <c r="B68" s="7">
-        <v>238.931821604986</v>
-      </c>
-      <c r="C68" s="8">
         <v>7.51527817135244</v>
       </c>
-      <c r="D68" s="8">
+      <c r="C68" s="7">
         <v>0.411024569899961</v>
       </c>
-      <c r="E68" s="8">
+      <c r="D68" s="7">
         <v>3.07740729746413e-05</v>
       </c>
-      <c r="F68" s="8">
+      <c r="E68" s="7">
         <v>1.04786922328284</v>
       </c>
-      <c r="G68" s="8">
+      <c r="F68" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="69" ht="15" customHeight="1">
-      <c r="A69" s="4">
-        <v>67</v>
+      <c r="A69" s="6">
+        <v>234.043217119672</v>
       </c>
       <c r="B69" s="7">
-        <v>234.043217119672</v>
-      </c>
-      <c r="C69" s="8">
         <v>3.24362459726186</v>
       </c>
-      <c r="D69" s="8">
+      <c r="C69" s="7">
         <v>0.736461188200056</v>
       </c>
-      <c r="E69" s="8">
+      <c r="D69" s="7">
         <v>4.37883843040828e-05</v>
       </c>
-      <c r="F69" s="8">
+      <c r="E69" s="7">
         <v>0.844213488890499</v>
       </c>
-      <c r="G69" s="8">
+      <c r="F69" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="70" ht="15" customHeight="1">
-      <c r="A70" s="4">
-        <v>68</v>
+      <c r="A70" s="6">
+        <v>267.814330966661</v>
       </c>
       <c r="B70" s="7">
-        <v>267.814330966661</v>
-      </c>
-      <c r="C70" s="8">
         <v>9.49805991353626</v>
       </c>
-      <c r="D70" s="8">
+      <c r="C70" s="7">
         <v>0.713203498814671</v>
       </c>
-      <c r="E70" s="8">
+      <c r="D70" s="7">
         <v>4.41646177534616e-05</v>
       </c>
-      <c r="F70" s="8">
+      <c r="E70" s="7">
         <v>0.481463306501787</v>
       </c>
-      <c r="G70" s="8">
+      <c r="F70" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1">
-      <c r="A71" s="4">
-        <v>69</v>
+      <c r="A71" s="6">
+        <v>259.202173293640</v>
       </c>
       <c r="B71" s="7">
-        <v>259.202173293640</v>
-      </c>
-      <c r="C71" s="8">
         <v>7.03516988152653</v>
       </c>
-      <c r="D71" s="8">
+      <c r="C71" s="7">
         <v>0.605120406323315</v>
       </c>
-      <c r="E71" s="8">
+      <c r="D71" s="7">
         <v>4.19846104694411e-05</v>
       </c>
-      <c r="F71" s="8">
+      <c r="E71" s="7">
         <v>0.428521256394098</v>
       </c>
-      <c r="G71" s="8">
+      <c r="F71" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1">
-      <c r="A72" s="4">
-        <v>70</v>
+      <c r="A72" s="6">
+        <v>263.959549382199</v>
       </c>
       <c r="B72" s="7">
-        <v>263.959549382199</v>
-      </c>
-      <c r="C72" s="8">
         <v>7.31728600739527</v>
       </c>
-      <c r="D72" s="8">
+      <c r="C72" s="7">
         <v>0.429849196649176</v>
       </c>
-      <c r="E72" s="8">
+      <c r="D72" s="7">
         <v>2.02827719528859e-05</v>
       </c>
-      <c r="F72" s="8">
+      <c r="E72" s="7">
         <v>0.921650236879855</v>
       </c>
-      <c r="G72" s="8">
+      <c r="F72" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1">
-      <c r="A73" s="4">
-        <v>71</v>
+      <c r="A73" s="6">
+        <v>246.961898463643</v>
       </c>
       <c r="B73" s="7">
-        <v>246.961898463643</v>
-      </c>
-      <c r="C73" s="8">
         <v>7.96588678007288</v>
       </c>
-      <c r="D73" s="8">
+      <c r="C73" s="7">
         <v>0.523073116001729</v>
       </c>
-      <c r="E73" s="8">
+      <c r="D73" s="7">
         <v>4.13099765913669e-05</v>
       </c>
-      <c r="F73" s="8">
+      <c r="E73" s="7">
         <v>1.21713922148967</v>
       </c>
-      <c r="G73" s="8">
+      <c r="F73" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1">
-      <c r="A74" s="4">
-        <v>72</v>
+      <c r="A74" s="6">
+        <v>245.159933581356</v>
       </c>
       <c r="B74" s="7">
-        <v>245.159933581356</v>
-      </c>
-      <c r="C74" s="8">
         <v>1.43005828258099</v>
       </c>
-      <c r="D74" s="8">
+      <c r="C74" s="7">
         <v>0.750654218174637</v>
       </c>
-      <c r="E74" s="8">
+      <c r="D74" s="7">
         <v>3.16623751554949e-05</v>
       </c>
-      <c r="F74" s="8">
+      <c r="E74" s="7">
         <v>1.20416080595544</v>
       </c>
-      <c r="G74" s="8">
+      <c r="F74" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1">
-      <c r="A75" s="4">
-        <v>73</v>
+      <c r="A75" s="6">
+        <v>258.614176000076</v>
       </c>
       <c r="B75" s="7">
-        <v>258.614176000076</v>
-      </c>
-      <c r="C75" s="8">
         <v>9.93913024610479</v>
       </c>
-      <c r="D75" s="8">
+      <c r="C75" s="7">
         <v>0.573035402071476</v>
       </c>
-      <c r="E75" s="8">
+      <c r="D75" s="7">
         <v>3.10570373562209e-05</v>
       </c>
-      <c r="F75" s="8">
+      <c r="E75" s="7">
         <v>0.51172802003454</v>
       </c>
-      <c r="G75" s="8">
+      <c r="F75" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1">
-      <c r="A76" s="4">
-        <v>74</v>
+      <c r="A76" s="6">
+        <v>247.378206839355</v>
       </c>
       <c r="B76" s="7">
-        <v>247.378206839355</v>
-      </c>
-      <c r="C76" s="8">
         <v>0.262185672963733</v>
       </c>
-      <c r="D76" s="8">
+      <c r="C76" s="7">
         <v>0.380197589759824</v>
       </c>
-      <c r="E76" s="8">
+      <c r="D76" s="7">
         <v>3.98254877082998e-05</v>
       </c>
-      <c r="F76" s="8">
+      <c r="E76" s="7">
         <v>0.425079744191251</v>
       </c>
-      <c r="G76" s="8">
+      <c r="F76" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
-      <c r="A77" s="4">
-        <v>75</v>
+      <c r="A77" s="6">
+        <v>247.811723889750</v>
       </c>
       <c r="B77" s="7">
-        <v>247.811723889750</v>
-      </c>
-      <c r="C77" s="8">
         <v>8.62346252838044</v>
       </c>
-      <c r="D77" s="8">
+      <c r="C77" s="7">
         <v>0.646338858753677</v>
       </c>
-      <c r="E77" s="8">
+      <c r="D77" s="7">
         <v>3.76376856826467e-05</v>
       </c>
-      <c r="F77" s="8">
+      <c r="E77" s="7">
         <v>0.555625360788132</v>
       </c>
-      <c r="G77" s="8">
+      <c r="F77" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
-      <c r="A78" s="4">
-        <v>76</v>
+      <c r="A78" s="6">
+        <v>250.826171229937</v>
       </c>
       <c r="B78" s="7">
-        <v>250.826171229937</v>
-      </c>
-      <c r="C78" s="8">
         <v>5.81577407344291</v>
       </c>
-      <c r="D78" s="8">
+      <c r="C78" s="7">
         <v>0.794875853831853</v>
       </c>
-      <c r="E78" s="8">
+      <c r="D78" s="7">
         <v>1.81562490093249e-05</v>
       </c>
-      <c r="F78" s="8">
+      <c r="E78" s="7">
         <v>0.6043796439539429</v>
       </c>
-      <c r="G78" s="8">
+      <c r="F78" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
-      <c r="A79" s="4">
-        <v>77</v>
+      <c r="A79" s="6">
+        <v>243.636923350916</v>
       </c>
       <c r="B79" s="7">
-        <v>243.636923350916</v>
-      </c>
-      <c r="C79" s="8">
         <v>7.50172413297993</v>
       </c>
-      <c r="D79" s="8">
+      <c r="C79" s="7">
         <v>0.5284876637178459</v>
       </c>
-      <c r="E79" s="8">
+      <c r="D79" s="7">
         <v>1.22771775364438e-05</v>
       </c>
-      <c r="F79" s="8">
+      <c r="E79" s="7">
         <v>0.819525898503448</v>
       </c>
-      <c r="G79" s="8">
+      <c r="F79" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
-      <c r="A80" s="4">
-        <v>78</v>
+      <c r="A80" s="6">
+        <v>241.628406585747</v>
       </c>
       <c r="B80" s="7">
-        <v>241.628406585747</v>
-      </c>
-      <c r="C80" s="8">
         <v>7.9860424476021</v>
       </c>
-      <c r="D80" s="8">
+      <c r="C80" s="7">
         <v>0.448665690753636</v>
       </c>
-      <c r="E80" s="8">
+      <c r="D80" s="7">
         <v>1.11042404781802e-05</v>
       </c>
-      <c r="F80" s="8">
+      <c r="E80" s="7">
         <v>0.889581770808312</v>
       </c>
-      <c r="G80" s="8">
+      <c r="F80" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
-      <c r="A81" s="4">
-        <v>79</v>
+      <c r="A81" s="6">
+        <v>266.903617157247</v>
       </c>
       <c r="B81" s="7">
-        <v>266.903617157247</v>
-      </c>
-      <c r="C81" s="8">
         <v>3.81016124062214</v>
       </c>
-      <c r="D81" s="8">
+      <c r="C81" s="7">
         <v>0.674929155363072</v>
       </c>
-      <c r="E81" s="8">
+      <c r="D81" s="7">
         <v>3.04456591318851e-05</v>
       </c>
-      <c r="F81" s="8">
+      <c r="E81" s="7">
         <v>0.846285239093806</v>
       </c>
-      <c r="G81" s="8">
+      <c r="F81" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
-      <c r="A82" s="4">
-        <v>80</v>
+      <c r="A82" s="6">
+        <v>271.527372842470</v>
       </c>
       <c r="B82" s="7">
-        <v>271.527372842470</v>
-      </c>
-      <c r="C82" s="8">
         <v>8.03960891498647</v>
       </c>
-      <c r="D82" s="8">
+      <c r="C82" s="7">
         <v>0.316161533311787</v>
       </c>
-      <c r="E82" s="8">
+      <c r="D82" s="7">
         <v>3.83754900492518e-05</v>
       </c>
-      <c r="F82" s="8">
+      <c r="E82" s="7">
         <v>0.783626222289893</v>
       </c>
-      <c r="G82" s="8">
+      <c r="F82" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
-      <c r="A83" s="4">
-        <v>81</v>
+      <c r="A83" s="6">
+        <v>271.051957655804</v>
       </c>
       <c r="B83" s="7">
-        <v>271.051957655804</v>
-      </c>
-      <c r="C83" s="8">
         <v>2.21432734323488</v>
       </c>
-      <c r="D83" s="8">
+      <c r="C83" s="7">
         <v>0.433536009842183</v>
       </c>
-      <c r="E83" s="8">
+      <c r="D83" s="7">
         <v>1.32589585950905e-05</v>
       </c>
-      <c r="F83" s="8">
+      <c r="E83" s="7">
         <v>0.753610533647624</v>
       </c>
-      <c r="G83" s="8">
+      <c r="F83" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
-      <c r="A84" s="4">
-        <v>82</v>
+      <c r="A84" s="6">
+        <v>237.510750560763</v>
       </c>
       <c r="B84" s="7">
-        <v>237.510750560763</v>
-      </c>
-      <c r="C84" s="8">
         <v>6.33786760611918</v>
       </c>
-      <c r="D84" s="8">
+      <c r="C84" s="7">
         <v>0.701481618686869</v>
       </c>
-      <c r="E84" s="8">
+      <c r="D84" s="7">
         <v>3.78720198448071e-05</v>
       </c>
-      <c r="F84" s="8">
+      <c r="E84" s="7">
         <v>1.03212438938751</v>
       </c>
-      <c r="G84" s="8">
+      <c r="F84" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
-      <c r="A85" s="4">
-        <v>83</v>
+      <c r="A85" s="6">
+        <v>246.848164793741</v>
       </c>
       <c r="B85" s="7">
-        <v>246.848164793741</v>
-      </c>
-      <c r="C85" s="8">
         <v>8.45851483027678</v>
       </c>
-      <c r="D85" s="8">
+      <c r="C85" s="7">
         <v>0.514384387499721</v>
       </c>
-      <c r="E85" s="8">
+      <c r="D85" s="7">
         <v>4.29603948164927e-05</v>
       </c>
-      <c r="F85" s="8">
+      <c r="E85" s="7">
         <v>0.916859330865042</v>
       </c>
-      <c r="G85" s="8">
+      <c r="F85" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
-      <c r="A86" s="4">
-        <v>84</v>
+      <c r="A86" s="6">
+        <v>238.886921946810</v>
       </c>
       <c r="B86" s="7">
-        <v>238.886921946810</v>
-      </c>
-      <c r="C86" s="8">
         <v>0.78386899854948</v>
       </c>
-      <c r="D86" s="8">
+      <c r="C86" s="7">
         <v>0.309166321456504</v>
       </c>
-      <c r="E86" s="8">
+      <c r="D86" s="7">
         <v>1.26689999055743e-05</v>
       </c>
-      <c r="F86" s="8">
+      <c r="E86" s="7">
         <v>0.7783316463094559</v>
       </c>
-      <c r="G86" s="8">
+      <c r="F86" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
-      <c r="A87" s="4">
-        <v>85</v>
+      <c r="A87" s="6">
+        <v>237.683676910704</v>
       </c>
       <c r="B87" s="7">
-        <v>237.683676910704</v>
-      </c>
-      <c r="C87" s="8">
         <v>0.277833488486699</v>
       </c>
-      <c r="D87" s="8">
+      <c r="C87" s="7">
         <v>0.677430740695234</v>
       </c>
-      <c r="E87" s="8">
+      <c r="D87" s="7">
         <v>2.57940192184256e-05</v>
       </c>
-      <c r="F87" s="8">
+      <c r="E87" s="7">
         <v>1.01622425887621</v>
       </c>
-      <c r="G87" s="8">
+      <c r="F87" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
-      <c r="A88" s="4">
-        <v>86</v>
+      <c r="A88" s="6">
+        <v>251.246193069858</v>
       </c>
       <c r="B88" s="7">
-        <v>251.246193069858</v>
-      </c>
-      <c r="C88" s="8">
         <v>4.50086747000761</v>
       </c>
-      <c r="D88" s="8">
+      <c r="C88" s="7">
         <v>0.539036253358916</v>
       </c>
-      <c r="E88" s="8">
+      <c r="D88" s="7">
         <v>2.89601570624878e-05</v>
       </c>
-      <c r="F88" s="8">
+      <c r="E88" s="7">
         <v>1.06260975724419</v>
       </c>
-      <c r="G88" s="8">
+      <c r="F88" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
-      <c r="A89" s="4">
-        <v>87</v>
+      <c r="A89" s="6">
+        <v>249.245700794309</v>
       </c>
       <c r="B89" s="7">
-        <v>249.245700794309</v>
-      </c>
-      <c r="C89" s="8">
         <v>9.046861603436231</v>
       </c>
-      <c r="D89" s="8">
+      <c r="C89" s="7">
         <v>0.318530523977018</v>
       </c>
-      <c r="E89" s="8">
+      <c r="D89" s="7">
         <v>4.09549737088167e-05</v>
       </c>
-      <c r="F89" s="8">
+      <c r="E89" s="7">
         <v>0.503654139438635</v>
       </c>
-      <c r="G89" s="8">
+      <c r="F89" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="4">
-        <v>88</v>
+      <c r="A90" s="6">
+        <v>257.890542676483</v>
       </c>
       <c r="B90" s="7">
-        <v>257.890542676483</v>
-      </c>
-      <c r="C90" s="8">
         <v>0.103642613352319</v>
       </c>
-      <c r="D90" s="8">
+      <c r="C90" s="7">
         <v>0.569313641288173</v>
       </c>
-      <c r="E90" s="8">
+      <c r="D90" s="7">
         <v>1.01207182647839e-05</v>
       </c>
-      <c r="F90" s="8">
+      <c r="E90" s="7">
         <v>1.18473487302942</v>
       </c>
-      <c r="G90" s="8">
+      <c r="F90" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="4">
-        <v>89</v>
+      <c r="A91" s="6">
+        <v>269.366081348111</v>
       </c>
       <c r="B91" s="7">
-        <v>269.366081348111</v>
-      </c>
-      <c r="C91" s="8">
         <v>7.95966941942269</v>
       </c>
-      <c r="D91" s="8">
+      <c r="C91" s="7">
         <v>0.757637159957394</v>
       </c>
-      <c r="E91" s="8">
+      <c r="D91" s="7">
         <v>1.58223292463359e-05</v>
       </c>
-      <c r="F91" s="8">
+      <c r="E91" s="7">
         <v>0.53012730764319</v>
       </c>
-      <c r="G91" s="8">
+      <c r="F91" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="4">
-        <v>90</v>
+      <c r="A92" s="6">
+        <v>240.655266916097</v>
       </c>
       <c r="B92" s="7">
-        <v>240.655266916097</v>
-      </c>
-      <c r="C92" s="8">
         <v>6.22495902299921</v>
       </c>
-      <c r="D92" s="8">
+      <c r="C92" s="7">
         <v>0.752904748004151</v>
       </c>
-      <c r="E92" s="8">
+      <c r="D92" s="7">
         <v>4.9598207134363e-05</v>
       </c>
-      <c r="F92" s="8">
+      <c r="E92" s="7">
         <v>0.986676028481798</v>
       </c>
-      <c r="G92" s="8">
+      <c r="F92" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="4">
-        <v>91</v>
+      <c r="A93" s="6">
+        <v>262.422016365692</v>
       </c>
       <c r="B93" s="7">
-        <v>262.422016365692</v>
-      </c>
-      <c r="C93" s="8">
         <v>9.09293204544254</v>
       </c>
-      <c r="D93" s="8">
+      <c r="C93" s="7">
         <v>0.50043686618556</v>
       </c>
-      <c r="E93" s="8">
+      <c r="D93" s="7">
         <v>1.99940272090015e-05</v>
       </c>
-      <c r="F93" s="8">
+      <c r="E93" s="7">
         <v>0.543079890899376</v>
       </c>
-      <c r="G93" s="8">
+      <c r="F93" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
-      <c r="A94" s="4">
-        <v>92</v>
+      <c r="A94" s="6">
+        <v>237.928282013349</v>
       </c>
       <c r="B94" s="7">
-        <v>237.928282013349</v>
-      </c>
-      <c r="C94" s="8">
         <v>8.126105880328289</v>
       </c>
-      <c r="D94" s="8">
+      <c r="C94" s="7">
         <v>0.373396186708622</v>
       </c>
-      <c r="E94" s="8">
+      <c r="D94" s="7">
         <v>2.0571899309076e-05</v>
       </c>
-      <c r="F94" s="8">
+      <c r="E94" s="7">
         <v>1.07574857237266</v>
       </c>
-      <c r="G94" s="8">
+      <c r="F94" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
-      <c r="A95" s="4">
-        <v>93</v>
+      <c r="A95" s="6">
+        <v>245.573490071768</v>
       </c>
       <c r="B95" s="7">
-        <v>245.573490071768</v>
-      </c>
-      <c r="C95" s="8">
         <v>9.82417449292943</v>
       </c>
-      <c r="D95" s="8">
+      <c r="C95" s="7">
         <v>0.433319351075818</v>
       </c>
-      <c r="E95" s="8">
+      <c r="D95" s="7">
         <v>3.13461337988485e-05</v>
       </c>
-      <c r="F95" s="8">
+      <c r="E95" s="7">
         <v>0.659435284228326</v>
       </c>
-      <c r="G95" s="8">
+      <c r="F95" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
-      <c r="A96" s="4">
-        <v>94</v>
+      <c r="A96" s="6">
+        <v>269.580913246953</v>
       </c>
       <c r="B96" s="7">
-        <v>269.580913246953</v>
-      </c>
-      <c r="C96" s="8">
         <v>3.66556643851234</v>
       </c>
-      <c r="D96" s="8">
+      <c r="C96" s="7">
         <v>0.516796163636582</v>
       </c>
-      <c r="E96" s="8">
+      <c r="D96" s="7">
         <v>3.04917076911345e-05</v>
       </c>
-      <c r="F96" s="8">
+      <c r="E96" s="7">
         <v>1.17458134383001</v>
       </c>
-      <c r="G96" s="8">
+      <c r="F96" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
-      <c r="A97" s="4">
-        <v>95</v>
+      <c r="A97" s="6">
+        <v>234.387960250846</v>
       </c>
       <c r="B97" s="7">
-        <v>234.387960250846</v>
-      </c>
-      <c r="C97" s="8">
         <v>7.16878663631689</v>
       </c>
-      <c r="D97" s="8">
+      <c r="C97" s="7">
         <v>0.745509477146169</v>
       </c>
-      <c r="E97" s="8">
+      <c r="D97" s="7">
         <v>1.10914889406988e-05</v>
       </c>
-      <c r="F97" s="8">
+      <c r="E97" s="7">
         <v>0.830692278983321</v>
       </c>
-      <c r="G97" s="8">
+      <c r="F97" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
-      <c r="A98" s="4">
-        <v>96</v>
+      <c r="A98" s="6">
+        <v>246.189592470801</v>
       </c>
       <c r="B98" s="7">
-        <v>246.189592470801</v>
-      </c>
-      <c r="C98" s="8">
         <v>8.59489320865586</v>
       </c>
-      <c r="D98" s="8">
+      <c r="C98" s="7">
         <v>0.579258275461259</v>
       </c>
-      <c r="E98" s="8">
+      <c r="D98" s="7">
         <v>3.76091147265099e-05</v>
       </c>
-      <c r="F98" s="8">
+      <c r="E98" s="7">
         <v>0.773604137460018</v>
       </c>
-      <c r="G98" s="8">
+      <c r="F98" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
-      <c r="A99" s="4">
-        <v>97</v>
+      <c r="A99" s="6">
+        <v>258.282361500854</v>
       </c>
       <c r="B99" s="7">
-        <v>258.282361500854</v>
-      </c>
-      <c r="C99" s="8">
         <v>2.90096851687426</v>
       </c>
-      <c r="D99" s="8">
+      <c r="C99" s="7">
         <v>0.304674288983258</v>
       </c>
-      <c r="E99" s="8">
+      <c r="D99" s="7">
         <v>3.30702373994836e-05</v>
       </c>
-      <c r="F99" s="8">
+      <c r="E99" s="7">
         <v>0.656941476659282</v>
       </c>
-      <c r="G99" s="8">
+      <c r="F99" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
-      <c r="A100" s="4">
-        <v>98</v>
+      <c r="A100" s="6">
+        <v>253.840703940045</v>
       </c>
       <c r="B100" s="7">
-        <v>253.840703940045</v>
-      </c>
-      <c r="C100" s="8">
         <v>9.164058530538981</v>
       </c>
-      <c r="D100" s="8">
+      <c r="C100" s="7">
         <v>0.513237394250698</v>
       </c>
-      <c r="E100" s="8">
+      <c r="D100" s="7">
         <v>1.98958414640954e-05</v>
       </c>
-      <c r="F100" s="8">
+      <c r="E100" s="7">
         <v>0.70631735305522</v>
       </c>
-      <c r="G100" s="8">
+      <c r="F100" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
-      <c r="A101" s="4">
-        <v>99</v>
+      <c r="A101" s="6">
+        <v>270.424444665462</v>
       </c>
       <c r="B101" s="7">
-        <v>270.424444665462</v>
-      </c>
-      <c r="C101" s="8">
         <v>9.368683813090939</v>
       </c>
-      <c r="D101" s="8">
+      <c r="C101" s="7">
         <v>0.722164974282857</v>
       </c>
-      <c r="E101" s="8">
+      <c r="D101" s="7">
         <v>4.68082605722264e-05</v>
       </c>
-      <c r="F101" s="8">
+      <c r="E101" s="7">
         <v>0.588017739209836</v>
       </c>
-      <c r="G101" s="8">
+      <c r="F101" s="7">
         <v>1</v>
       </c>
     </row>
